--- a/EvaluationData/CoronaWarnApp/Uncertainty_Template_CWA.xlsx
+++ b/EvaluationData/CoronaWarnApp/Uncertainty_Template_CWA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\MasterThesis\Evaluation\CoronaWarnApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\EvaluationData\CoronaWarnApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEA1D7A-7377-4CFD-A799-9FE2B371A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6DD567-8CF7-4C3A-8995-4457D36F6FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -796,6 +796,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -807,9 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,31 +1122,31 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
@@ -1197,10 +1197,10 @@
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -1271,7 +1271,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="33"/>
       <c r="C5" s="10" t="s">
         <v>174</v>
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -1375,7 +1375,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="33"/>
       <c r="C7" s="6" t="s">
         <v>154</v>
@@ -1420,7 +1420,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="33"/>
       <c r="C8" s="6" t="s">
         <v>155</v>
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="33"/>
       <c r="C9" s="20" t="s">
         <v>175</v>
@@ -1510,7 +1510,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="33" t="s">
@@ -1569,7 +1569,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="33"/>
       <c r="C11" s="10" t="s">
         <v>153</v>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="33"/>
       <c r="C12" s="10" t="s">
         <v>154</v>
@@ -1659,7 +1659,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="33" t="s">
@@ -1718,7 +1718,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="33"/>
       <c r="C14" s="13" t="s">
         <v>153</v>
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="33"/>
       <c r="C15" s="6" t="s">
         <v>155</v>
@@ -1808,7 +1808,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="33"/>
       <c r="C16" s="10" t="s">
         <v>175</v>
@@ -1912,7 +1912,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -1971,7 +1971,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="33"/>
       <c r="C19" s="10" t="s">
         <v>159</v>
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="33"/>
       <c r="C20" s="10" t="s">
         <v>162</v>
@@ -2061,7 +2061,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="34" t="s">
         <v>116</v>
       </c>
       <c r="B21" s="33" t="s">
@@ -2120,7 +2120,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="33"/>
       <c r="C22" s="6" t="s">
         <v>173</v>
@@ -2165,7 +2165,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="33"/>
       <c r="C23" s="6" t="s">
         <v>159</v>
@@ -2210,7 +2210,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="33"/>
       <c r="C24" s="20" t="s">
         <v>162</v>
@@ -2491,7 +2491,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="33" t="s">
@@ -2550,7 +2550,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="33"/>
       <c r="C30" s="20" t="s">
         <v>178</v>
@@ -2593,7 +2593,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="33"/>
       <c r="C31" s="20" t="s">
         <v>179</v>
@@ -2666,7 +2666,7 @@
         <v>53</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="K32" s="20" t="s">
         <v>64</v>
@@ -2815,7 +2815,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="33" t="s">
@@ -2874,7 +2874,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="33"/>
       <c r="C36" s="20" t="s">
         <v>179</v>
@@ -2978,7 +2978,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="34" t="s">
         <v>124</v>
       </c>
       <c r="B38" s="33" t="s">
@@ -3037,7 +3037,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="33"/>
       <c r="C39" s="20" t="s">
         <v>180</v>
@@ -3082,7 +3082,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="33" t="s">
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="33"/>
       <c r="C41" s="20" t="s">
         <v>181</v>
@@ -3186,7 +3186,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="33"/>
       <c r="C42" s="20" t="s">
         <v>179</v>
@@ -6061,12 +6061,59 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J1:S1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="I21:I24"/>
     <mergeCell ref="H21:H24"/>
     <mergeCell ref="G21:G24"/>
@@ -6083,59 +6130,12 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="I6:I9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J1:S1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H13:H16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="17">

--- a/EvaluationData/CoronaWarnApp/Uncertainty_Template_CWA.xlsx
+++ b/EvaluationData/CoronaWarnApp/Uncertainty_Template_CWA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\EvaluationData\CoronaWarnApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F293C514-EE16-469A-8936-54594D1AC41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EF5BDB-EC1E-4AEC-8DDB-716F7018E8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t xml:space="preserve">Severity of the Impact </t>
   </si>
   <si>
-    <t>Architectural Element</t>
-  </si>
-  <si>
     <t>Resolvable by ADD</t>
   </si>
   <si>
@@ -607,6 +604,10 @@
   </si>
   <si>
     <t>CU21</t>
+  </si>
+  <si>
+    <t>Architectural Element
+Type</t>
   </si>
 </sst>
 </file>
@@ -812,7 +813,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,31 +852,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1136,20 +1137,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R58" sqref="R58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" style="38" customWidth="1"/>
     <col min="2" max="2" width="11" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" style="1" customWidth="1"/>
-    <col min="5" max="9" width="19.5703125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="1" customWidth="1"/>
+    <col min="5" max="9" width="19.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="25.7109375" style="1" customWidth="1"/>
     <col min="14" max="17" width="19" style="1" customWidth="1"/>
     <col min="18" max="18" width="21.5703125" style="1" customWidth="1"/>
@@ -1158,35 +1159,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="35" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
@@ -1203,19 +1204,19 @@
         <v>12</v>
       </c>
       <c r="J2" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>107</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>108</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>4</v>
@@ -1224,23 +1225,23 @@
         <v>13</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="21" t="s">
         <v>6</v>
       </c>
@@ -1261,3281 +1262,3281 @@
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B6" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C6" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E6" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G14" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="J19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H21" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="Q23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="F24" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S30" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="R31" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S31" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R32" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S32" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="R34" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O36" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q36" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S36" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q38" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N39" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="R39" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="S39" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N40" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q40" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R40" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S40" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q41" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R41" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S41" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R42" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S42" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L43" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="R43" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S43" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q44" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q45" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q46" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M47" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N47" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P47" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q47" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="R47" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="S47" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q48" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="R48" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S48" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q49" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="41"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N50" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q50" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R50" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S50" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N51" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="R51" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S51" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="46"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N52" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="O52" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q52" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R52" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="S52" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N53" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q53" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R53" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S53" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N54" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O54" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P54" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q54" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="R54" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S54" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O55" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P55" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q55" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R55" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="S55" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="N56" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P56" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q56" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R56" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I57" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M57" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="N57" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P57" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q57" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="R57" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="46"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="41"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N58" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P58" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q58" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R58" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="S58" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J59" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N59" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P59" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q59" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="R59" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S59" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="46"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="41"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K60" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L60" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M60" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N60" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O60" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q60" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R60" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S60" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="46"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="41"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="L61" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M61" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q61" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R61" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S61" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="41"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K62" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L62" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M62" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="17" t="s">
+      <c r="N62" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q62" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R62" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S62" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I63" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N63" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O63" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P63" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q63" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="R63" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="S63" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="46"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M64" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N64" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="O64" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P64" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q64" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R64" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="S64" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="46"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L65" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M65" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q65" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="R65" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="S65" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N66" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O66" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P66" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q66" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="R66" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="S66" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="46"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="41"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K67" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L67" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M67" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q67" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="R67" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S67" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I68" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P68" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q68" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="R68" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="46"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L69" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="24" t="s">
+      <c r="M69" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N69" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="S4" s="17" t="s">
+      <c r="O69" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q69" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R69" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="S69" s="29" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="R9" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="S9" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="R17" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="S17" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O20" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="R20" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="S20" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R24" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O25" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="R25" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S25" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O26" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="R26" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S26" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P27" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="R27" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S27" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O28" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P28" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="R28" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S28" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K30" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O30" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P30" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="R30" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="S30" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K31" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O31" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P31" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q31" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R31" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S31" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M32" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O32" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P32" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="R32" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S32" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="R33" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S33" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K34" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L34" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="N34" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O34" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P34" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="R34" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="S34" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P35" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q35" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="S35" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O36" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P36" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q36" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="R36" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="S36" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q37" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="R37" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q38" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="R38" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S38" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M39" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="N39" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P39" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q39" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="R39" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="S39" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="K40" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L40" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M40" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="N40" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O40" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P40" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q40" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="R40" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="S40" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K41" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M41" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O41" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P41" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q41" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R41" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S41" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K42" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M42" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="N42" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O42" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P42" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q42" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="R42" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S42" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="K43" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L43" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M43" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="N43" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O43" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P43" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q43" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="R43" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="S43" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O44" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P44" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q44" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R44" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="S44" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P45" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q45" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R45" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="S45" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H46" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J46" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N46" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P46" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q46" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="R46" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S46" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L47" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M47" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="N47" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="O47" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P47" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q47" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="R47" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="S47" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L48" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M48" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O48" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P48" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q48" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="R48" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S48" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="H49" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I49" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N49" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P49" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q49" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="R49" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S49" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="K50" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L50" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M50" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="N50" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O50" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P50" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q50" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="R50" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="S50" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I51" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M51" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N51" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O51" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P51" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q51" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="R51" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S51" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K52" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L52" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M52" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="N52" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="O52" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P52" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q52" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="R52" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="S52" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="K53" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L53" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M53" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="N53" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O53" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P53" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q53" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="R53" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="S53" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I54" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N54" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O54" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P54" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q54" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="R54" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S54" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M55" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N55" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O55" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P55" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q55" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R55" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="S55" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="N56" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O56" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P56" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q56" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="R56" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S56" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G57" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H57" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I57" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M57" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="N57" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O57" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P57" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q57" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="R57" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S57" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M58" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N58" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O58" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P58" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q58" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R58" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="S58" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H59" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I59" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M59" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N59" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O59" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P59" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q59" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="R59" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S59" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K60" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L60" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="M60" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N60" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O60" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P60" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q60" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="R60" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="S60" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K61" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="L61" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M61" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N61" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O61" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P61" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q61" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R61" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="S61" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="38"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K62" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L62" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M62" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="N62" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O62" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P62" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q62" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="R62" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="S62" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="H63" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I63" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L63" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M63" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N63" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O63" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P63" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q63" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="R63" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S63" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K64" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L64" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M64" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="N64" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="O64" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P64" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q64" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="R64" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="S64" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K65" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L65" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M65" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O65" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P65" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q65" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="R65" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S65" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G66" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H66" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I66" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L66" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M66" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="N66" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O66" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P66" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q66" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="R66" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S66" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E67" s="38"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="K67" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L67" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M67" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="N67" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O67" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P67" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q67" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="R67" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="S67" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H68" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I68" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L68" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M68" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O68" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P68" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q68" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="R68" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="S68" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K69" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="L69" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="M69" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N69" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O69" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P69" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q69" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="R69" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="S69" s="29" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -4624,8 +4625,8 @@
       <c r="S74" s="4"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="46" t="s">
-        <v>130</v>
+      <c r="A75" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -4644,8 +4645,8 @@
       <c r="S75" s="4"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="45" t="s">
-        <v>131</v>
+      <c r="A76" s="38" t="s">
+        <v>130</v>
       </c>
       <c r="B76" s="14"/>
       <c r="E76" s="9"/>
@@ -4665,8 +4666,8 @@
       <c r="S76" s="4"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="45" t="s">
-        <v>132</v>
+      <c r="A77" s="38" t="s">
+        <v>131</v>
       </c>
       <c r="B77" s="13"/>
       <c r="E77" s="9"/>
@@ -7220,6 +7221,13 @@
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A49:A50"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="I63:I65"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="I29:I32"/>
@@ -7244,13 +7252,14 @@
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="I35:I36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="I38:I45"/>
+    <mergeCell ref="H38:H45"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="G38:G45"/>
+    <mergeCell ref="F38:F45"/>
     <mergeCell ref="H63:H65"/>
     <mergeCell ref="G63:G65"/>
     <mergeCell ref="F63:F65"/>
@@ -7260,6 +7269,19 @@
     <mergeCell ref="G51:G53"/>
     <mergeCell ref="F51:F53"/>
     <mergeCell ref="E51:E53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="I46:I48"/>
     <mergeCell ref="H46:H48"/>
     <mergeCell ref="G46:G48"/>
@@ -7276,23 +7298,6 @@
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="I24:I28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="I38:I45"/>
-    <mergeCell ref="H38:H45"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="I59:I62"/>
     <mergeCell ref="H59:H62"/>
@@ -7319,15 +7324,7 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E21:E23"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="G38:G45"/>
-    <mergeCell ref="F38:F45"/>
     <mergeCell ref="E38:E45"/>
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="B11:B13"/>
@@ -7348,6 +7345,10 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="G11:G13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="17">

--- a/EvaluationData/CoronaWarnApp/Uncertainty_Template_CWA.xlsx
+++ b/EvaluationData/CoronaWarnApp/Uncertainty_Template_CWA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\EvaluationData\CoronaWarnApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EF5BDB-EC1E-4AEC-8DDB-716F7018E8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06700C3-14E8-4E64-87E7-CF2FFC793C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,9 +429,6 @@
     <t>What is the structure of the interface?</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Is data anonymised? </t>
   </si>
   <si>
@@ -608,6 +605,9 @@
   <si>
     <t>Architectural Element
 Type</t>
+  </si>
+  <si>
+    <t>Irreducible</t>
   </si>
 </sst>
 </file>
@@ -837,6 +837,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,9 +854,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,31 +1163,31 @@
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N2" s="20" t="s">
         <v>46</v>
@@ -1238,10 +1238,10 @@
       <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="21" t="s">
         <v>6</v>
       </c>
@@ -1262,14 +1262,14 @@
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>20</v>
@@ -1321,10 +1321,10 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="40"/>
       <c r="C5" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>42</v>
@@ -1366,14 +1366,14 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>21</v>
@@ -1425,10 +1425,10 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="40"/>
       <c r="C7" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>23</v>
@@ -1470,10 +1470,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="40"/>
       <c r="C8" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>22</v>
@@ -1515,10 +1515,10 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="40"/>
       <c r="C9" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>123</v>
@@ -1560,13 +1560,13 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="40"/>
       <c r="C10" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -1605,14 +1605,14 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>23</v>
@@ -1664,10 +1664,10 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="40"/>
       <c r="C12" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>21</v>
@@ -1709,10 +1709,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="40"/>
       <c r="C13" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>22</v>
@@ -1754,14 +1754,14 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>22</v>
@@ -1813,10 +1813,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="40"/>
       <c r="C15" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>21</v>
@@ -1858,10 +1858,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="40"/>
       <c r="C16" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>23</v>
@@ -1903,10 +1903,10 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="40"/>
       <c r="C17" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>119</v>
@@ -1948,13 +1948,13 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="40"/>
       <c r="C18" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
@@ -1993,19 +1993,19 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F19" s="40" t="s">
@@ -2052,15 +2052,15 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="40"/>
       <c r="C20" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
@@ -2097,14 +2097,14 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>123</v>
@@ -2156,10 +2156,10 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="40"/>
       <c r="C22" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>125</v>
@@ -2201,10 +2201,10 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="40"/>
       <c r="C23" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>45</v>
@@ -2246,19 +2246,19 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="41" t="s">
         <v>113</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F24" s="40" t="s">
@@ -2305,15 +2305,15 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="40"/>
       <c r="C25" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -2350,15 +2350,15 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="40"/>
       <c r="C26" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
@@ -2395,15 +2395,15 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="40"/>
       <c r="C27" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="41"/>
+        <v>132</v>
+      </c>
+      <c r="E27" s="42"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
@@ -2440,15 +2440,15 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="40"/>
       <c r="C28" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="41"/>
+        <v>126</v>
+      </c>
+      <c r="E28" s="42"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -2485,14 +2485,14 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>125</v>
@@ -2544,10 +2544,10 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="40"/>
       <c r="C30" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>123</v>
@@ -2589,10 +2589,10 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="40"/>
       <c r="C31" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>122</v>
@@ -2634,10 +2634,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="40"/>
       <c r="C32" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>37</v>
@@ -2679,19 +2679,19 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="42" t="s">
         <v>57</v>
       </c>
       <c r="F33" s="40" t="s">
@@ -2738,15 +2738,15 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="40"/>
       <c r="C34" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -2783,19 +2783,19 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="42" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="40" t="s">
@@ -2842,15 +2842,15 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="40"/>
       <c r="C36" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="41"/>
+      <c r="E36" s="42"/>
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
@@ -2891,10 +2891,10 @@
         <v>44</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>45</v>
@@ -2946,14 +2946,14 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>118</v>
@@ -3005,10 +3005,10 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="40"/>
       <c r="C39" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>20</v>
@@ -3050,10 +3050,10 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="40"/>
       <c r="C40" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>23</v>
@@ -3095,10 +3095,10 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="40"/>
       <c r="C41" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>22</v>
@@ -3140,10 +3140,10 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="40"/>
       <c r="C42" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>24</v>
@@ -3185,10 +3185,10 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="40"/>
       <c r="C43" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>119</v>
@@ -3230,10 +3230,10 @@
       </c>
     </row>
     <row r="44" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="40"/>
       <c r="C44" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>85</v>
@@ -3275,10 +3275,10 @@
       </c>
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="40"/>
       <c r="C45" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>84</v>
@@ -3301,7 +3301,7 @@
         <v>31</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="O45" s="12" t="s">
         <v>69</v>
@@ -3320,14 +3320,14 @@
       </c>
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
-        <v>134</v>
+      <c r="A46" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>117</v>
@@ -3379,10 +3379,10 @@
       </c>
     </row>
     <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="40"/>
       <c r="C47" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>20</v>
@@ -3424,10 +3424,10 @@
       </c>
     </row>
     <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="40"/>
       <c r="C48" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>118</v>
@@ -3469,19 +3469,19 @@
       </c>
     </row>
     <row r="49" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D49" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F49" s="40" t="s">
@@ -3528,15 +3528,15 @@
       </c>
     </row>
     <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="40"/>
       <c r="C50" s="29" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="41"/>
+      <c r="E50" s="42"/>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
@@ -3573,14 +3573,14 @@
       </c>
     </row>
     <row r="51" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="41" t="s">
         <v>114</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>35</v>
@@ -3632,10 +3632,10 @@
       </c>
     </row>
     <row r="52" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="40"/>
       <c r="C52" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>21</v>
@@ -3677,10 +3677,10 @@
       </c>
     </row>
     <row r="53" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="40"/>
       <c r="C53" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>23</v>
@@ -3722,17 +3722,17 @@
       </c>
     </row>
     <row r="54" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="41" t="s">
         <v>36</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E54" s="40" t="s">
         <v>56</v>
@@ -3781,10 +3781,10 @@
       </c>
     </row>
     <row r="55" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="40"/>
       <c r="C55" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>84</v>
@@ -3807,7 +3807,7 @@
         <v>58</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="O55" s="12" t="s">
         <v>69</v>
@@ -3830,10 +3830,10 @@
         <v>115</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>37</v>
@@ -3885,19 +3885,19 @@
       </c>
     </row>
     <row r="57" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="41" t="s">
         <v>120</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="42" t="s">
         <v>47</v>
       </c>
       <c r="F57" s="40" t="s">
@@ -3944,15 +3944,15 @@
       </c>
     </row>
     <row r="58" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="40"/>
       <c r="C58" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="41"/>
+      <c r="E58" s="42"/>
       <c r="F58" s="40"/>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
@@ -3989,19 +3989,19 @@
       </c>
     </row>
     <row r="59" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="41" t="s">
         <v>38</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F59" s="40" t="s">
@@ -4048,15 +4048,15 @@
       </c>
     </row>
     <row r="60" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="40"/>
       <c r="C60" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E60" s="41"/>
+      <c r="E60" s="42"/>
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
@@ -4093,15 +4093,15 @@
       </c>
     </row>
     <row r="61" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="40"/>
       <c r="C61" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="41"/>
+      <c r="E61" s="42"/>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
@@ -4119,7 +4119,7 @@
         <v>58</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="O61" s="29" t="s">
         <v>69</v>
@@ -4138,15 +4138,15 @@
       </c>
     </row>
     <row r="62" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="40"/>
       <c r="C62" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E62" s="41"/>
+      <c r="E62" s="42"/>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
@@ -4183,14 +4183,14 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="41" t="s">
         <v>116</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>119</v>
@@ -4242,10 +4242,10 @@
       </c>
     </row>
     <row r="64" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="40"/>
       <c r="C64" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>21</v>
@@ -4287,10 +4287,10 @@
       </c>
     </row>
     <row r="65" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="40"/>
       <c r="C65" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>118</v>
@@ -4332,19 +4332,19 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="41" t="s">
         <v>40</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="42" t="s">
         <v>47</v>
       </c>
       <c r="F66" s="40" t="s">
@@ -4391,15 +4391,15 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="40"/>
       <c r="C67" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E67" s="41"/>
+      <c r="E67" s="42"/>
       <c r="F67" s="40"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
@@ -4436,17 +4436,17 @@
       </c>
     </row>
     <row r="68" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="41" t="s">
         <v>124</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E68" s="40" t="s">
         <v>47</v>
@@ -4495,10 +4495,10 @@
       </c>
     </row>
     <row r="69" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="40"/>
       <c r="C69" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>123</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B76" s="14"/>
       <c r="E76" s="9"/>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B77" s="13"/>
       <c r="E77" s="9"/>
@@ -7204,6 +7204,127 @@
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="J1:S1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="I38:I45"/>
+    <mergeCell ref="H38:H45"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="G38:G45"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="I35:I36"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="I66:I67"/>
@@ -7228,127 +7349,6 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="I63:I65"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="I38:I45"/>
-    <mergeCell ref="H38:H45"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="G38:G45"/>
-    <mergeCell ref="F38:F45"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="J1:S1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="G11:G13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="17">

--- a/EvaluationData/CoronaWarnApp/Uncertainty_Template_CWA.xlsx
+++ b/EvaluationData/CoronaWarnApp/Uncertainty_Template_CWA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\EvaluationData\CoronaWarnApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06700C3-14E8-4E64-87E7-CF2FFC793C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4C3F19-1960-440B-9993-150BCE82F119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Uncertainty</t>
-  </si>
-  <si>
-    <t>Architecture-related Categories</t>
   </si>
   <si>
     <r>
@@ -608,6 +605,9 @@
   </si>
   <si>
     <t>Irreducible</t>
+  </si>
+  <si>
+    <t>ADD-related Categories</t>
   </si>
 </sst>
 </file>
@@ -837,12 +837,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -853,6 +847,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,10 +1147,10 @@
     <col min="2" max="2" width="11" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" style="1" customWidth="1"/>
-    <col min="5" max="9" width="19.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="9" width="19.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.7109375" style="1" customWidth="1"/>
     <col min="14" max="17" width="19" style="1" customWidth="1"/>
     <col min="18" max="18" width="21.5703125" style="1" customWidth="1"/>
@@ -1163,31 +1163,31 @@
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
+      <c r="E1" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+        <v>7</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
@@ -1195,53 +1195,53 @@
         <v>3</v>
       </c>
       <c r="G2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="P2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>14</v>
       </c>
       <c r="R2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="21" t="s">
         <v>6</v>
       </c>
@@ -1262,72 +1262,72 @@
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>15</v>
+      <c r="A4" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="G4" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="26" t="s">
+      <c r="Q4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="R4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="40"/>
       <c r="C5" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
@@ -1335,103 +1335,103 @@
       <c r="H5" s="40"/>
       <c r="I5" s="40"/>
       <c r="J5" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="17" t="s">
+      <c r="P6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="Q6" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="40"/>
       <c r="C7" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -1439,44 +1439,44 @@
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
       <c r="J7" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="40"/>
       <c r="C8" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
@@ -1484,44 +1484,44 @@
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="40"/>
       <c r="C9" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
@@ -1529,44 +1529,44 @@
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
       <c r="J9" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="29" t="s">
-        <v>68</v>
-      </c>
       <c r="P9" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S9" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="40"/>
       <c r="C10" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -1574,103 +1574,103 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="17" t="s">
+      <c r="O11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="S10" s="17" t="s">
+      <c r="Q11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="40"/>
       <c r="C12" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
@@ -1678,44 +1678,44 @@
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="40"/>
       <c r="C13" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
@@ -1723,103 +1723,103 @@
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>52</v>
-      </c>
       <c r="F14" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H14" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="40" t="s">
-        <v>51</v>
-      </c>
       <c r="J14" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="40"/>
       <c r="C15" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
@@ -1827,44 +1827,44 @@
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
       <c r="J15" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="40"/>
       <c r="C16" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
@@ -1872,44 +1872,44 @@
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="P16" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="40"/>
       <c r="C17" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
@@ -1917,44 +1917,44 @@
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
       <c r="J17" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P17" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R17" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S17" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="40"/>
       <c r="C18" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
@@ -1962,207 +1962,207 @@
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="O18" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q18" s="17" t="s">
+      <c r="O19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="Q19" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="40"/>
       <c r="C20" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="42"/>
+        <v>29</v>
+      </c>
+      <c r="E20" s="46"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
       <c r="J20" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L20" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="N20" s="16" t="s">
+      <c r="M21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="R20" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="S20" s="29" t="s">
+      <c r="O21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S21" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="40"/>
       <c r="C22" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
@@ -2170,44 +2170,44 @@
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="40"/>
       <c r="C23" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
@@ -2215,342 +2215,342 @@
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="Q23" s="17" t="s">
+      <c r="F24" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="R23" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>79</v>
-      </c>
       <c r="R24" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="40"/>
       <c r="C25" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="42"/>
+        <v>124</v>
+      </c>
+      <c r="E25" s="46"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
       <c r="J25" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P25" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="40"/>
       <c r="C26" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="42"/>
+        <v>44</v>
+      </c>
+      <c r="E26" s="46"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O26" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q26" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="40"/>
       <c r="C27" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="42"/>
+        <v>131</v>
+      </c>
+      <c r="E27" s="46"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O27" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P27" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="40"/>
       <c r="C28" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="42"/>
+        <v>125</v>
+      </c>
+      <c r="E28" s="46"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
       <c r="J28" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M28" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N28" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R28" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="S28" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="40" t="s">
+      <c r="K29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="Q29" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="40"/>
       <c r="C30" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
@@ -2558,44 +2558,44 @@
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
       <c r="J30" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M30" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N30" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="29" t="s">
-        <v>68</v>
-      </c>
       <c r="P30" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q30" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R30" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S30" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="40"/>
       <c r="C31" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
@@ -2603,44 +2603,44 @@
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
       <c r="J31" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O31" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P31" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R31" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S31" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="40"/>
       <c r="C32" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
@@ -2648,370 +2648,370 @@
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
       <c r="J32" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M32" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O32" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P32" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q32" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R32" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S32" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>57</v>
+      <c r="E33" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="F33" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>49</v>
-      </c>
       <c r="J33" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="40"/>
       <c r="C34" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="42"/>
+        <v>29</v>
+      </c>
+      <c r="E34" s="46"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
       <c r="J34" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M34" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R34" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="N34" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O34" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="P34" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="R34" s="29" t="s">
+      <c r="F35" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S35" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="S34" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I35" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P35" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q35" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="S35" s="12" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="40"/>
       <c r="C36" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="42"/>
+        <v>122</v>
+      </c>
+      <c r="E36" s="46"/>
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K36" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M36" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N36" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O36" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O36" s="29" t="s">
-        <v>68</v>
-      </c>
       <c r="P36" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q36" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R36" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S36" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="E37" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="C38" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F38" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q37" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="R37" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="40" t="s">
+      <c r="J38" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="Q38" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R38" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="40"/>
       <c r="C39" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
@@ -3019,44 +3019,44 @@
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
       <c r="J39" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M39" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N39" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q39" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N39" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P39" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q39" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="R39" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="40"/>
       <c r="C40" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
@@ -3064,44 +3064,44 @@
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
       <c r="J40" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K40" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L40" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M40" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O40" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P40" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q40" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R40" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S40" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="40"/>
       <c r="C41" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
@@ -3109,44 +3109,44 @@
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
       <c r="J41" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M41" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O41" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P41" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q41" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R41" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S41" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="40"/>
       <c r="C42" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="40"/>
@@ -3154,44 +3154,44 @@
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
       <c r="J42" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K42" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L42" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M42" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N42" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O42" s="29" t="s">
-        <v>68</v>
-      </c>
       <c r="P42" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q42" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R42" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S42" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="40"/>
       <c r="C43" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="40"/>
@@ -3199,44 +3199,44 @@
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
       <c r="J43" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K43" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L43" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M43" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N43" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O43" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P43" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R43" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S43" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="40"/>
       <c r="C44" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
@@ -3244,44 +3244,44 @@
       <c r="H44" s="40"/>
       <c r="I44" s="40"/>
       <c r="J44" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q44" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="40"/>
       <c r="C45" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
@@ -3289,103 +3289,103 @@
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
       <c r="J45" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P45" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q45" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="Q45" s="17" t="s">
+      <c r="F46" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="R45" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="S45" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="40" t="s">
+      <c r="J46" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="J46" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N46" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P46" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="Q46" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S46" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="40"/>
       <c r="C47" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="40"/>
       <c r="F47" s="40"/>
@@ -3393,44 +3393,44 @@
       <c r="H47" s="40"/>
       <c r="I47" s="40"/>
       <c r="J47" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M47" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N47" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="N47" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="O47" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P47" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q47" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="R47" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="40"/>
       <c r="C48" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E48" s="40"/>
       <c r="F48" s="40"/>
@@ -3438,207 +3438,207 @@
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
       <c r="J48" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K48" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L48" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M48" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O48" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q48" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="R48" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="S48" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N49" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O49" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="P48" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q48" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="R48" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="S48" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N49" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="P49" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q49" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S49" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="40"/>
       <c r="C50" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="E50" s="46"/>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
       <c r="J50" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K50" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M50" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N50" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q50" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R50" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="S50" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N51" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O50" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P50" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q50" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R50" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="S50" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="40" t="s">
+      <c r="P51" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H51" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M51" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N51" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O51" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P51" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="Q51" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S51" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="40"/>
       <c r="C52" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
@@ -3646,44 +3646,44 @@
       <c r="H52" s="40"/>
       <c r="I52" s="40"/>
       <c r="J52" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N52" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O52" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q52" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R52" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="40"/>
       <c r="C53" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53" s="40"/>
       <c r="F53" s="40"/>
@@ -3691,103 +3691,103 @@
       <c r="H53" s="40"/>
       <c r="I53" s="40"/>
       <c r="J53" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K53" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M53" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N53" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q53" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R53" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="S53" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N54" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O54" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O53" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P53" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q53" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R53" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="S53" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H54" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I54" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="J54" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N54" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O54" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="P54" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q54" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R54" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S54" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="40"/>
       <c r="C55" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E55" s="40"/>
       <c r="F55" s="40"/>
@@ -3795,460 +3795,460 @@
       <c r="H55" s="40"/>
       <c r="I55" s="40"/>
       <c r="J55" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q55" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R55" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S55" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="N56" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P56" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q56" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="R56" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="12" t="s">
+      <c r="C57" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M57" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N57" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P57" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="N56" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O56" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P56" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q56" s="17" t="s">
+      <c r="Q57" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="R56" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="S56" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H57" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I57" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M57" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="N57" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O57" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P57" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q57" s="17" t="s">
-        <v>91</v>
-      </c>
       <c r="R57" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S57" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="40"/>
       <c r="C58" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="42"/>
+        <v>42</v>
+      </c>
+      <c r="E58" s="46"/>
       <c r="F58" s="40"/>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
       <c r="I58" s="40"/>
       <c r="J58" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K58" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L58" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="M58" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N58" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P58" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q58" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R58" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="S58" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I59" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J59" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N59" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O59" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O58" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P58" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q58" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="R58" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="S58" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="40" t="s">
+      <c r="P59" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H59" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="J59" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M59" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N59" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O59" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P59" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="Q59" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S59" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="40"/>
       <c r="C60" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="42"/>
+        <v>122</v>
+      </c>
+      <c r="E60" s="46"/>
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
       <c r="I60" s="40"/>
       <c r="J60" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K60" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L60" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M60" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N60" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O60" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O60" s="29" t="s">
-        <v>68</v>
-      </c>
       <c r="P60" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q60" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R60" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S60" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="40"/>
       <c r="C61" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="42"/>
+        <v>83</v>
+      </c>
+      <c r="E61" s="46"/>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
       <c r="I61" s="40"/>
       <c r="J61" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K61" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L61" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M61" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P61" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q61" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R61" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S61" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="40"/>
       <c r="C62" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="42"/>
+        <v>92</v>
+      </c>
+      <c r="E62" s="46"/>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
       <c r="I62" s="40"/>
       <c r="J62" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K62" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L62" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M62" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N62" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q62" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R62" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="S62" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I63" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M63" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="K62" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L62" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="M62" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="N62" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O62" s="29" t="s">
+      <c r="N63" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O63" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="P62" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q62" s="17" t="s">
+      <c r="P63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="R62" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="S62" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B63" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E63" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G63" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H63" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I63" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L63" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M63" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O63" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P63" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="Q63" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R63" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S63" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="40"/>
       <c r="C64" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
@@ -4256,44 +4256,44 @@
       <c r="H64" s="40"/>
       <c r="I64" s="40"/>
       <c r="J64" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M64" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N64" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O64" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P64" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q64" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R64" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S64" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="40"/>
       <c r="C65" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E65" s="40"/>
       <c r="F65" s="40"/>
@@ -4301,207 +4301,207 @@
       <c r="H65" s="40"/>
       <c r="I65" s="40"/>
       <c r="J65" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L65" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M65" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q65" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="R65" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="S65" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J66" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="K65" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L65" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="M65" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="N65" s="16" t="s">
+      <c r="K66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N66" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="O65" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="P65" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q65" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="R65" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="S65" s="29" t="s">
+      <c r="O66" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q66" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="R66" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="S66" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G66" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I66" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L66" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M66" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N66" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O66" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P66" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q66" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="R66" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="S66" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="40"/>
       <c r="C67" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E67" s="42"/>
+        <v>118</v>
+      </c>
+      <c r="E67" s="46"/>
       <c r="F67" s="40"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
       <c r="I67" s="40"/>
       <c r="J67" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K67" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L67" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M67" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N67" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q67" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R67" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="S67" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I68" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O68" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O67" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P67" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q67" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="R67" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="S67" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E68" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G68" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H68" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I68" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L68" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M68" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O68" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="P68" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q68" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="R68" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="R68" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="S68" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="40"/>
       <c r="C69" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
@@ -4509,34 +4509,34 @@
       <c r="H69" s="40"/>
       <c r="I69" s="40"/>
       <c r="J69" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K69" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L69" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M69" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N69" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="O69" s="29" t="s">
-        <v>68</v>
-      </c>
       <c r="P69" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q69" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R69" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S69" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -4626,7 +4626,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" s="14"/>
       <c r="E76" s="9"/>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77" s="13"/>
       <c r="E77" s="9"/>
@@ -7204,57 +7204,76 @@
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="J1:S1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="I38:I45"/>
+    <mergeCell ref="H38:H45"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="G38:G45"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="E24:E28"/>
     <mergeCell ref="H6:H10"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="F6:F10"/>
@@ -7279,76 +7298,57 @@
     <mergeCell ref="I24:I28"/>
     <mergeCell ref="H24:H28"/>
     <mergeCell ref="G24:G28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="I38:I45"/>
-    <mergeCell ref="H38:H45"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="G38:G45"/>
-    <mergeCell ref="F38:F45"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="J1:S1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E11:E13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="17">
